--- a/Dataset/Authors/TAC_dial.xlsx
+++ b/Dataset/Authors/TAC_dial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565E9F9-2C51-4BD9-A0F2-8F5A673EF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E2173-9F45-4ECD-BD44-A3C255339D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>causidicus</t>
   </si>
   <si>
-    <t>centumvir</t>
-  </si>
-  <si>
     <t>centumviralis</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>centumviri</t>
   </si>
 </sst>
 </file>
@@ -671,10 +671,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>12</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>24</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>3</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>15</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>2</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>2</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>5</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -1660,6 +1660,9 @@
       <c r="AA34" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B34">
+    <sortCondition ref="A10:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>